--- a/23. DP 2N17(KUNING K_2) 2T17(K_4)/Daftar ukuran pakaian Teknika.xlsx
+++ b/23. DP 2N17(KUNING K_2) 2T17(K_4)/Daftar ukuran pakaian Teknika.xlsx
@@ -1,37 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Altaf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\23. DP 2N17(KUNING K_2) 2T17(K_4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB026E-B02C-4675-B87E-EC93E4D3F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918EFDB7-A0AA-41C9-A6E2-3DFC440A36DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Lembar1!$4:$6</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
   <si>
     <t>DAFTAR NAMA PASIS DP-2 ANGKATAN 17 TEKNIKA</t>
   </si>
@@ -208,19 +200,146 @@
   </si>
   <si>
     <t>0812-8376-9084</t>
+  </si>
+  <si>
+    <t>‘-</t>
+  </si>
+  <si>
+    <t>Sudah mengukur di Penjahit MAPAN, Perak-Surabaya</t>
+  </si>
+  <si>
+    <t>Edy Handoyo</t>
+  </si>
+  <si>
+    <t>Hendro Prabowo</t>
+  </si>
+  <si>
+    <t>Nugroho</t>
+  </si>
+  <si>
+    <t>Olvian Richardo S.</t>
+  </si>
+  <si>
+    <t>Tri Adi Ilmianto</t>
+  </si>
+  <si>
+    <t>‘99.5</t>
+  </si>
+  <si>
+    <t>‘22.5</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>‘53,5</t>
+  </si>
+  <si>
+    <t>‘86,5</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>0813-3016-9851</t>
+  </si>
+  <si>
+    <t>0813-9000-0281</t>
+  </si>
+  <si>
+    <t>0822-9224-7436</t>
+  </si>
+  <si>
+    <t>0822-3156-3767</t>
+  </si>
+  <si>
+    <t>0813-5814-2676</t>
+  </si>
+  <si>
+    <t>Sudah mengukur di Penjahit MAPAN Tirta n Tailor. Sidoarjo</t>
+  </si>
+  <si>
+    <t>Zainal Abidin</t>
+  </si>
+  <si>
+    <t>0812-1323-9856</t>
+  </si>
+  <si>
+    <t>Eka Putra Adi S.</t>
+  </si>
+  <si>
+    <t>Suhartanto</t>
+  </si>
+  <si>
+    <t>Sulton Naidi</t>
+  </si>
+  <si>
+    <t>Andis Eko Prayogo</t>
+  </si>
+  <si>
+    <t>Heru Sulistiono</t>
+  </si>
+  <si>
+    <t>Sugeng Baskoro</t>
+  </si>
+  <si>
+    <t>Alhapis Rajab</t>
+  </si>
+  <si>
+    <t>Slamet Rifa’i</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>SRIYONO</t>
+  </si>
+  <si>
+    <t>ANGGA PRASTYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>MUJIB RIDWAN</t>
+  </si>
+  <si>
+    <t>SARIWANTO</t>
+  </si>
+  <si>
+    <t>MUH ABDUL SYUKUR</t>
+  </si>
+  <si>
+    <t>36"</t>
+  </si>
+  <si>
+    <t>YOGO PURNOMO</t>
+  </si>
+  <si>
+    <t>ARIFIN ROCHMAN</t>
+  </si>
+  <si>
+    <t>MUH. ASRI H.M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,8 +359,136 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +519,187 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -402,95 +828,342 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF505050"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{0AD810AF-FB19-49A7-96CD-02CB885F357F}"/>
+    <cellStyle name="Normal 3" xfId="42" xr:uid="{9C328DA5-CD52-4102-8BCC-E26A64876A09}"/>
+    <cellStyle name="Note 2" xfId="43" xr:uid="{733004CD-AB09-422C-9F29-3EAB6CD4D18C}"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,1181 +1475,2491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED20926D-0005-2B4D-B3F0-1B4AD4F29C0A}">
-  <dimension ref="A3:Y26"/>
+  <dimension ref="A3:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="11" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="8" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" customWidth="1"/>
     <col min="20" max="20" width="4.140625" customWidth="1"/>
     <col min="21" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="7" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="23"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="12" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="22" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="21"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4" t="s">
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="4"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="D7" s="2">
+        <v>170</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>94</v>
+      </c>
+      <c r="H7" s="2">
+        <v>104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2">
+        <v>61</v>
+      </c>
+      <c r="K7" s="2">
+        <v>26</v>
+      </c>
+      <c r="L7" s="10">
+        <v>38</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="10">
+        <v>72</v>
+      </c>
+      <c r="O7" s="10">
+        <v>41</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>57</v>
+      </c>
+      <c r="R7" s="2">
+        <v>90</v>
+      </c>
+      <c r="S7" s="2">
+        <v>104</v>
+      </c>
+      <c r="T7" s="2">
+        <v>66</v>
+      </c>
+      <c r="U7" s="2">
+        <v>60</v>
+      </c>
+      <c r="V7" s="2">
+        <v>44</v>
+      </c>
+      <c r="W7" s="2">
+        <v>38</v>
+      </c>
+      <c r="X7" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>165</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>46</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>112</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>115</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>88</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>48</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>22</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>62</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>36</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <v>26</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>72</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>42</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <v>7</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>115</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="2">
         <v>106</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
         <v>68</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="2">
         <v>62</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="2">
         <v>42</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="2">
         <v>36</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="2">
         <v>95</v>
       </c>
-      <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>170</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>43</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>89</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>93</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>94</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>44</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>25</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>58</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>33</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>18</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>77</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>40</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <v>57</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <v>89</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="2">
         <v>92</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
         <v>67</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="2">
         <v>50</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="2">
         <v>40</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="2">
         <v>30</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="2">
         <v>104</v>
       </c>
-      <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="D10" s="2">
+        <v>167</v>
+      </c>
+      <c r="E10" s="2">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2">
+        <v>114</v>
+      </c>
+      <c r="H10" s="2">
+        <v>120</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>59</v>
+      </c>
+      <c r="L10" s="2">
+        <v>42</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="2">
+        <v>75</v>
+      </c>
+      <c r="O10" s="2">
+        <v>42</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>57</v>
+      </c>
+      <c r="R10" s="2">
+        <v>105</v>
+      </c>
+      <c r="S10" s="2">
+        <v>116</v>
+      </c>
+      <c r="T10" s="2">
+        <v>68</v>
+      </c>
+      <c r="U10" s="2">
+        <v>66</v>
+      </c>
+      <c r="V10" s="2">
+        <v>52</v>
+      </c>
+      <c r="W10" s="2">
+        <v>42</v>
+      </c>
+      <c r="X10" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>168</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>50</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>110</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>114</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>116</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>50</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>27</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>65</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>38</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>23</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>72</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>41</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <v>57</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <v>107</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="2">
         <v>116</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="2">
         <v>73</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="2">
         <v>74</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="2">
         <v>52</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="2">
         <v>40</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="2">
         <v>95</v>
       </c>
-      <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>187</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>48</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>122</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>125</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>126</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>46</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>30</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>70</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>38</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <v>26</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <v>82</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>46</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="2">
         <v>61</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="2">
         <v>120</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="2">
         <v>126</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="2">
         <v>78</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="2">
         <v>80</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="2">
         <v>58</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="2">
         <v>46</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="2">
         <v>108</v>
       </c>
-      <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>160</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>46</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>101</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>106</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>106</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>44</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>23</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>55</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>35</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <v>22</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>68</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>40</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2">
         <v>54</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="2">
         <v>103</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="2">
         <v>106</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="2">
         <v>71</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="2">
         <v>70</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="2">
         <v>50</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="2">
         <v>42</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="2">
         <v>89</v>
       </c>
-      <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>165</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>44</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>96</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>86</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>88</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>42</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>20</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>60</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>32</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <v>23</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>70</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>40</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="2">
         <v>54</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="2">
         <v>82</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="2">
         <v>100</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>54</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="2">
         <v>58</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="2">
         <v>40</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="2">
         <v>34</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="2">
         <v>98</v>
       </c>
-      <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>167</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>47</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>110</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>106</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>104</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>45</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>24</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>60</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>45</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <v>24</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>68</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>42</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="2">
         <v>57</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="2">
         <v>94</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="2">
         <v>104</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="2">
         <v>70</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="2">
         <v>64</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="2">
         <v>46</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="2">
         <v>42</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="2">
         <v>104</v>
       </c>
-      <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="D17" s="2">
+        <v>175</v>
+      </c>
+      <c r="E17" s="2">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>97</v>
+      </c>
+      <c r="H17" s="2">
+        <v>110</v>
+      </c>
+      <c r="I17" s="2">
+        <v>47</v>
+      </c>
+      <c r="J17" s="2">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>65</v>
+      </c>
+      <c r="L17" s="2">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="2">
+        <v>70</v>
+      </c>
+      <c r="O17" s="2">
+        <v>42</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>54</v>
+      </c>
+      <c r="R17" s="2">
+        <v>93</v>
+      </c>
+      <c r="S17" s="2">
+        <v>110</v>
+      </c>
+      <c r="T17" s="2">
+        <v>78</v>
+      </c>
+      <c r="U17" s="2">
+        <v>70</v>
+      </c>
+      <c r="V17" s="2">
+        <v>53</v>
+      </c>
+      <c r="W17" s="2">
+        <v>38</v>
+      </c>
+      <c r="X17" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="D18" s="2">
+        <v>168</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>99</v>
+      </c>
+      <c r="G18" s="2">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2">
+        <v>106</v>
+      </c>
+      <c r="I18" s="2">
+        <v>42</v>
+      </c>
+      <c r="J18" s="2">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2">
+        <v>58</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="2">
+        <v>25</v>
+      </c>
+      <c r="N18" s="2">
+        <v>77</v>
+      </c>
+      <c r="O18" s="2">
+        <v>41</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>58</v>
+      </c>
+      <c r="R18" s="2">
+        <v>91</v>
+      </c>
+      <c r="S18" s="2">
+        <v>106</v>
+      </c>
+      <c r="T18" s="2">
+        <v>70</v>
+      </c>
+      <c r="U18" s="2">
+        <v>34</v>
+      </c>
+      <c r="V18" s="2">
+        <v>28</v>
+      </c>
+      <c r="W18" s="2">
+        <v>21</v>
+      </c>
+      <c r="X18" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>166</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>50</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>128</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>130</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>124</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>50</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>29</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <v>63</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <v>42</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="2">
         <v>24</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <v>78</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>41</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="2">
         <v>57</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="2">
         <v>102</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="2">
         <v>120</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="2">
         <v>78</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="2">
         <v>74</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="2">
         <v>58</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="2">
         <v>48</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="2">
         <v>94.5</v>
       </c>
-      <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
         <v>14</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="B20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>167</v>
+      </c>
+      <c r="E20" s="2">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2">
+        <v>106</v>
+      </c>
+      <c r="G20" s="2">
+        <v>96</v>
+      </c>
+      <c r="H20" s="2">
+        <v>106</v>
+      </c>
+      <c r="I20" s="2">
+        <v>46</v>
+      </c>
+      <c r="J20" s="2">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>60</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>22</v>
+      </c>
+      <c r="N20" s="2">
+        <v>70</v>
+      </c>
+      <c r="O20" s="2">
+        <v>40</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>58</v>
+      </c>
+      <c r="R20" s="2">
+        <v>80</v>
+      </c>
+      <c r="S20" s="2">
+        <v>106</v>
+      </c>
+      <c r="T20" s="2">
+        <v>62</v>
+      </c>
+      <c r="U20" s="2">
+        <v>56</v>
+      </c>
+      <c r="V20" s="2">
+        <v>48</v>
+      </c>
+      <c r="W20" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
         <v>15</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="B21" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2">
+        <v>170</v>
+      </c>
+      <c r="E21" s="2">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2">
+        <v>104</v>
+      </c>
+      <c r="G21" s="2">
+        <v>112</v>
+      </c>
+      <c r="H21" s="8">
+        <v>107</v>
+      </c>
+      <c r="I21" s="2">
+        <v>47</v>
+      </c>
+      <c r="J21" s="2">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2">
+        <v>35</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>60</v>
+      </c>
+      <c r="O21" s="2">
+        <v>42</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>58</v>
+      </c>
+      <c r="R21" s="2">
+        <v>107</v>
+      </c>
+      <c r="S21" s="2">
+        <v>112</v>
+      </c>
+      <c r="T21" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" s="2">
+        <v>60</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2">
+        <v>23</v>
+      </c>
+      <c r="X21" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>16</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+      <c r="B22" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2">
+        <v>163</v>
+      </c>
+      <c r="E22" s="2">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2">
+        <v>90</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="2">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>59</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="2">
+        <v>70</v>
+      </c>
+      <c r="O22" s="2">
+        <v>39</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="2">
+        <v>94</v>
+      </c>
+      <c r="T22" s="2">
+        <v>29</v>
+      </c>
+      <c r="U22" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="V22" s="2">
+        <v>42</v>
+      </c>
+      <c r="W22" s="2">
+        <v>34</v>
+      </c>
+      <c r="X22" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
         <v>17</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="B23" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>163</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2">
+        <v>44</v>
+      </c>
+      <c r="J23" s="2">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2">
+        <v>62</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <v>14</v>
+      </c>
+      <c r="N23" s="2">
+        <v>68</v>
+      </c>
+      <c r="O23" s="2">
+        <v>41</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>55</v>
+      </c>
+      <c r="R23" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" s="2">
+        <v>100</v>
+      </c>
+      <c r="T23" s="2">
+        <v>28</v>
+      </c>
+      <c r="U23" s="2">
+        <v>64</v>
+      </c>
+      <c r="V23" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" s="2">
+        <v>21</v>
+      </c>
+      <c r="X23" s="2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
         <v>18</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="B24" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36">
         <v>19</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="B25" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="9">
+        <v>170</v>
+      </c>
+      <c r="E25" s="9">
+        <v>44</v>
+      </c>
+      <c r="F25" s="9">
+        <v>95</v>
+      </c>
+      <c r="G25" s="9">
+        <v>92</v>
+      </c>
+      <c r="H25" s="9">
+        <v>108</v>
+      </c>
+      <c r="I25" s="9">
+        <v>44</v>
+      </c>
+      <c r="J25" s="9">
+        <v>24</v>
+      </c>
+      <c r="K25" s="9">
+        <v>60</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9">
+        <v>18</v>
+      </c>
+      <c r="N25" s="9">
+        <v>71</v>
+      </c>
+      <c r="O25" s="9">
+        <v>41</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="R25" s="9">
+        <v>80</v>
+      </c>
+      <c r="S25" s="9">
+        <v>106</v>
+      </c>
+      <c r="T25" s="9">
+        <v>66</v>
+      </c>
+      <c r="U25" s="9">
+        <v>32</v>
+      </c>
+      <c r="V25" s="9">
+        <v>24</v>
+      </c>
+      <c r="W25" s="9">
+        <v>19</v>
+      </c>
+      <c r="X25" s="9">
+        <v>96</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>20</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="B26" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="6">
+        <v>175</v>
+      </c>
+      <c r="E26" s="6">
+        <v>42</v>
+      </c>
+      <c r="F26" s="6">
+        <v>106</v>
+      </c>
+      <c r="G26" s="6">
+        <v>102</v>
+      </c>
+      <c r="H26" s="6">
+        <v>114</v>
+      </c>
+      <c r="I26" s="6">
+        <v>48</v>
+      </c>
+      <c r="J26" s="6">
+        <v>27</v>
+      </c>
+      <c r="K26" s="6">
+        <v>62</v>
+      </c>
+      <c r="L26" s="6">
+        <v>36</v>
+      </c>
+      <c r="M26" s="6">
+        <v>25</v>
+      </c>
+      <c r="N26" s="6">
+        <v>72</v>
+      </c>
+      <c r="O26" s="6">
+        <v>45</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>58</v>
+      </c>
+      <c r="R26" s="6">
+        <v>102</v>
+      </c>
+      <c r="S26" s="6">
+        <v>112</v>
+      </c>
+      <c r="T26" s="6">
+        <v>76</v>
+      </c>
+      <c r="U26" s="6">
+        <v>66</v>
+      </c>
+      <c r="V26" s="6">
+        <v>50</v>
+      </c>
+      <c r="W26" s="6">
+        <v>38</v>
+      </c>
+      <c r="X26" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>21</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="7">
+        <v>170</v>
+      </c>
+      <c r="E27" s="7">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7">
+        <v>95</v>
+      </c>
+      <c r="G27" s="7">
+        <v>93</v>
+      </c>
+      <c r="H27" s="7">
+        <v>105</v>
+      </c>
+      <c r="I27" s="7">
+        <v>44</v>
+      </c>
+      <c r="J27" s="7">
+        <v>25</v>
+      </c>
+      <c r="K27" s="7">
+        <v>60</v>
+      </c>
+      <c r="L27" s="7">
+        <v>33</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
+        <v>75</v>
+      </c>
+      <c r="O27" s="7">
+        <v>41</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>55</v>
+      </c>
+      <c r="R27" s="7">
+        <v>85</v>
+      </c>
+      <c r="S27" s="7">
+        <v>102</v>
+      </c>
+      <c r="T27" s="7">
+        <v>66</v>
+      </c>
+      <c r="U27" s="7">
+        <v>50</v>
+      </c>
+      <c r="V27" s="7">
+        <v>40</v>
+      </c>
+      <c r="W27" s="7">
+        <v>20</v>
+      </c>
+      <c r="X27" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>22</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+    </row>
+    <row r="29" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
+        <v>23</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="7">
+        <v>186</v>
+      </c>
+      <c r="E29" s="7">
+        <v>52</v>
+      </c>
+      <c r="F29" s="7">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7">
+        <v>102</v>
+      </c>
+      <c r="H29" s="7">
+        <v>120</v>
+      </c>
+      <c r="I29" s="7">
+        <v>52</v>
+      </c>
+      <c r="J29" s="7">
+        <v>28</v>
+      </c>
+      <c r="K29" s="7">
+        <v>66</v>
+      </c>
+      <c r="L29" s="7">
+        <v>34</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7">
+        <v>77</v>
+      </c>
+      <c r="O29" s="7">
+        <v>45</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>61</v>
+      </c>
+      <c r="R29" s="7">
+        <v>102</v>
+      </c>
+      <c r="S29" s="7">
+        <v>120</v>
+      </c>
+      <c r="T29" s="7">
+        <v>76</v>
+      </c>
+      <c r="U29" s="7">
+        <v>64</v>
+      </c>
+      <c r="V29" s="7">
+        <v>54</v>
+      </c>
+      <c r="W29" s="7">
+        <v>34</v>
+      </c>
+      <c r="X29" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
+        <v>24</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="7">
+        <v>165</v>
+      </c>
+      <c r="E30" s="7">
+        <v>40</v>
+      </c>
+      <c r="F30" s="7">
+        <v>92</v>
+      </c>
+      <c r="G30" s="7">
+        <v>90</v>
+      </c>
+      <c r="H30" s="7">
+        <v>94</v>
+      </c>
+      <c r="I30" s="7">
+        <v>44</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7">
+        <v>60</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7">
+        <v>72</v>
+      </c>
+      <c r="O30" s="7">
+        <v>41</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>7</v>
+      </c>
+      <c r="R30" s="7">
+        <v>84</v>
+      </c>
+      <c r="S30" s="7">
+        <v>98</v>
+      </c>
+      <c r="T30" s="7">
+        <v>60</v>
+      </c>
+      <c r="U30" s="7">
+        <v>34</v>
+      </c>
+      <c r="V30" s="7">
+        <v>22</v>
+      </c>
+      <c r="W30" s="7">
+        <v>19</v>
+      </c>
+      <c r="X30" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <v>25</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="7">
+        <v>164</v>
+      </c>
+      <c r="E31" s="7">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7">
+        <v>96</v>
+      </c>
+      <c r="G31" s="7">
+        <v>88</v>
+      </c>
+      <c r="H31" s="7">
+        <v>99</v>
+      </c>
+      <c r="I31" s="7">
+        <v>40</v>
+      </c>
+      <c r="J31" s="7">
+        <v>36</v>
+      </c>
+      <c r="K31" s="7">
+        <v>61</v>
+      </c>
+      <c r="L31" s="7">
+        <v>30</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7">
+        <v>70</v>
+      </c>
+      <c r="O31" s="7">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>5</v>
+      </c>
+      <c r="R31" s="7">
+        <v>88</v>
+      </c>
+      <c r="S31" s="7">
+        <v>102</v>
+      </c>
+      <c r="T31" s="7">
+        <v>63</v>
+      </c>
+      <c r="U31" s="7">
+        <v>62</v>
+      </c>
+      <c r="V31" s="7">
+        <v>50</v>
+      </c>
+      <c r="W31" s="7">
+        <v>41</v>
+      </c>
+      <c r="X31" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>26</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>27</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="7">
+        <v>169</v>
+      </c>
+      <c r="E33" s="7">
+        <v>48</v>
+      </c>
+      <c r="F33" s="7">
+        <v>98</v>
+      </c>
+      <c r="G33" s="7">
+        <v>96</v>
+      </c>
+      <c r="H33" s="7">
+        <v>111</v>
+      </c>
+      <c r="I33" s="7">
+        <v>40</v>
+      </c>
+      <c r="J33" s="7">
+        <v>25</v>
+      </c>
+      <c r="K33" s="7">
+        <v>68</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7">
+        <v>22</v>
+      </c>
+      <c r="N33" s="7">
+        <v>60</v>
+      </c>
+      <c r="O33" s="7">
+        <v>41</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>5</v>
+      </c>
+      <c r="R33" s="7">
+        <v>85</v>
+      </c>
+      <c r="S33" s="7">
+        <v>106</v>
+      </c>
+      <c r="T33" s="7">
+        <v>70</v>
+      </c>
+      <c r="U33" s="7">
+        <v>32</v>
+      </c>
+      <c r="V33" s="7">
+        <v>25</v>
+      </c>
+      <c r="W33" s="7">
+        <v>20</v>
+      </c>
+      <c r="X33" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
+        <v>28</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="7">
+        <v>104</v>
+      </c>
+      <c r="E34" s="7">
+        <v>50</v>
+      </c>
+      <c r="F34" s="7">
+        <v>104</v>
+      </c>
+      <c r="G34" s="7">
+        <v>103</v>
+      </c>
+      <c r="H34" s="7">
+        <v>95</v>
+      </c>
+      <c r="I34" s="7">
+        <v>44</v>
+      </c>
+      <c r="J34" s="7">
+        <v>21</v>
+      </c>
+      <c r="K34" s="7">
+        <v>60</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7">
+        <v>28</v>
+      </c>
+      <c r="N34" s="7">
+        <v>65</v>
+      </c>
+      <c r="O34" s="7">
+        <v>42</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>61</v>
+      </c>
+      <c r="R34" s="7">
+        <v>103</v>
+      </c>
+      <c r="S34" s="7">
+        <v>100</v>
+      </c>
+      <c r="T34" s="7">
+        <v>70</v>
+      </c>
+      <c r="U34" s="7">
+        <v>56</v>
+      </c>
+      <c r="V34" s="7">
+        <v>40</v>
+      </c>
+      <c r="W34" s="7">
+        <v>30</v>
+      </c>
+      <c r="X34" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>29</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="7">
+        <v>167</v>
+      </c>
+      <c r="E35" s="7">
+        <v>16</v>
+      </c>
+      <c r="F35" s="7">
+        <v>87</v>
+      </c>
+      <c r="G35" s="7">
+        <v>90</v>
+      </c>
+      <c r="H35" s="7">
+        <v>90</v>
+      </c>
+      <c r="I35" s="7">
+        <v>43</v>
+      </c>
+      <c r="J35" s="7">
+        <v>25</v>
+      </c>
+      <c r="K35" s="7">
+        <v>57</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7">
+        <v>7</v>
+      </c>
+      <c r="N35" s="7">
+        <v>66</v>
+      </c>
+      <c r="O35" s="7">
+        <v>42</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>58</v>
+      </c>
+      <c r="R35" s="7">
+        <v>83</v>
+      </c>
+      <c r="S35" s="7">
+        <v>85</v>
+      </c>
+      <c r="T35" s="7">
+        <v>57</v>
+      </c>
+      <c r="U35" s="7">
+        <v>52</v>
+      </c>
+      <c r="V35" s="7">
+        <v>37</v>
+      </c>
+      <c r="W35" s="7">
+        <v>21</v>
+      </c>
+      <c r="X35" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
+        <v>30</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="7">
+        <v>174</v>
+      </c>
+      <c r="E36" s="7">
+        <v>46</v>
+      </c>
+      <c r="F36" s="7">
+        <v>98</v>
+      </c>
+      <c r="G36" s="7">
+        <v>88</v>
+      </c>
+      <c r="H36" s="7">
+        <v>110</v>
+      </c>
+      <c r="I36" s="7">
+        <v>46</v>
+      </c>
+      <c r="J36" s="7">
+        <v>23</v>
+      </c>
+      <c r="K36" s="7">
+        <v>56</v>
+      </c>
+      <c r="L36" s="7">
+        <v>34</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7">
+        <v>72</v>
+      </c>
+      <c r="O36" s="7">
+        <v>42</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>57</v>
+      </c>
+      <c r="R36" s="7">
+        <v>89</v>
+      </c>
+      <c r="S36" s="7">
+        <v>110</v>
+      </c>
+      <c r="T36" s="7">
+        <v>67</v>
+      </c>
+      <c r="U36" s="7">
+        <v>34</v>
+      </c>
+      <c r="V36" s="7">
+        <v>27</v>
+      </c>
+      <c r="W36" s="7">
+        <v>22</v>
+      </c>
+      <c r="X36" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
+        <v>31</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+    </row>
+    <row r="38" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>32</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="7">
+        <v>168</v>
+      </c>
+      <c r="E38" s="7">
+        <v>42</v>
+      </c>
+      <c r="F38" s="7">
+        <v>99</v>
+      </c>
+      <c r="G38" s="7">
+        <v>96</v>
+      </c>
+      <c r="H38" s="7">
+        <v>108</v>
+      </c>
+      <c r="I38" s="7">
+        <v>45</v>
+      </c>
+      <c r="J38" s="7">
+        <v>24</v>
+      </c>
+      <c r="K38" s="7">
+        <v>58</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7">
+        <v>18</v>
+      </c>
+      <c r="N38" s="7">
+        <v>70</v>
+      </c>
+      <c r="O38" s="7">
+        <v>42</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>7</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S38" s="7">
+        <v>108</v>
+      </c>
+      <c r="T38" s="7">
+        <v>68</v>
+      </c>
+      <c r="U38" s="7">
+        <v>68</v>
+      </c>
+      <c r="V38" s="7">
+        <v>24</v>
+      </c>
+      <c r="W38" s="7">
+        <v>22</v>
+      </c>
+      <c r="X38" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>33</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="7">
+        <v>168</v>
+      </c>
+      <c r="E39" s="7">
+        <v>42</v>
+      </c>
+      <c r="F39" s="7">
+        <v>99</v>
+      </c>
+      <c r="G39" s="7">
+        <v>96</v>
+      </c>
+      <c r="H39" s="7">
+        <v>108</v>
+      </c>
+      <c r="I39" s="7">
+        <v>45</v>
+      </c>
+      <c r="J39" s="7">
+        <v>24</v>
+      </c>
+      <c r="K39" s="7">
+        <v>58</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7">
+        <v>18</v>
+      </c>
+      <c r="N39" s="7">
+        <v>70</v>
+      </c>
+      <c r="O39" s="7">
+        <v>41</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>7</v>
+      </c>
+      <c r="R39" s="7">
+        <v>92</v>
+      </c>
+      <c r="S39" s="7">
+        <v>106</v>
+      </c>
+      <c r="T39" s="7">
+        <v>68</v>
+      </c>
+      <c r="U39" s="7">
+        <v>62</v>
+      </c>
+      <c r="V39" s="7">
+        <v>50</v>
+      </c>
+      <c r="W39" s="7">
+        <v>48</v>
+      </c>
+      <c r="X39" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>34</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="7">
+        <v>165</v>
+      </c>
+      <c r="E40" s="7">
+        <v>50</v>
+      </c>
+      <c r="F40" s="7">
+        <v>107</v>
+      </c>
+      <c r="G40" s="7">
+        <v>98</v>
+      </c>
+      <c r="H40" s="7">
+        <v>106</v>
+      </c>
+      <c r="I40" s="7">
+        <v>46</v>
+      </c>
+      <c r="J40" s="7">
+        <v>26</v>
+      </c>
+      <c r="K40" s="7">
+        <v>60</v>
+      </c>
+      <c r="L40" s="7">
+        <v>39</v>
+      </c>
+      <c r="M40" s="7">
+        <v>26</v>
+      </c>
+      <c r="N40" s="7">
+        <v>69</v>
+      </c>
+      <c r="O40" s="7">
+        <v>41</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>58</v>
+      </c>
+      <c r="R40" s="7">
+        <v>98</v>
+      </c>
+      <c r="S40" s="7">
+        <v>106</v>
+      </c>
+      <c r="T40" s="7">
+        <v>73</v>
+      </c>
+      <c r="U40" s="7">
+        <v>73</v>
+      </c>
+      <c r="V40" s="7">
+        <v>46</v>
+      </c>
+      <c r="W40" s="7">
+        <v>35</v>
+      </c>
+      <c r="X40" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>35</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="A3:X3"/>
+  <mergeCells count="29">
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
@@ -1984,25 +3967,29 @@
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
+    <mergeCell ref="D13:X13"/>
     <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A3:X3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:X4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="D32:X32"/>
+    <mergeCell ref="D41:X41"/>
+    <mergeCell ref="D28:X28"/>
+    <mergeCell ref="D37:X37"/>
+    <mergeCell ref="D24:X24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="24" max="1048575" man="1"/>
-  </colBreaks>
+  <pageMargins left="0.55118110236220474" right="0.23622047244094491" top="0.43307086614173229" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>